--- a/stock_historical_data/day/TVSSCS.xlsx
+++ b/stock_historical_data/day/TVSSCS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R183"/>
+  <dimension ref="A1:S184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -588,6 +593,9 @@
       <c r="R2" t="n">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -648,6 +656,9 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -708,6 +719,9 @@
       <c r="R4" t="n">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -768,6 +782,9 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -828,6 +845,9 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -888,6 +908,9 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -948,6 +971,9 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1008,6 +1034,9 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1068,6 +1097,9 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1128,6 +1160,9 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1188,6 +1223,9 @@
       <c r="R12" t="n">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1248,6 +1286,9 @@
       <c r="R13" t="n">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1308,6 +1349,9 @@
       <c r="R14" t="n">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1368,6 +1412,9 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1428,6 +1475,9 @@
       <c r="R16" t="n">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1488,6 +1538,9 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1548,6 +1601,9 @@
       <c r="R18" t="n">
         <v>0</v>
       </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1608,6 +1664,9 @@
       <c r="R19" t="n">
         <v>0</v>
       </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1668,6 +1727,9 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1728,6 +1790,9 @@
       <c r="R21" t="n">
         <v>0</v>
       </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1788,6 +1853,9 @@
       <c r="R22" t="n">
         <v>0</v>
       </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1848,6 +1916,9 @@
       <c r="R23" t="n">
         <v>0</v>
       </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1908,6 +1979,9 @@
       <c r="R24" t="n">
         <v>0</v>
       </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1968,6 +2042,9 @@
       <c r="R25" t="n">
         <v>0</v>
       </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2028,6 +2105,9 @@
       <c r="R26" t="n">
         <v>0</v>
       </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2088,6 +2168,9 @@
       <c r="R27" t="n">
         <v>0</v>
       </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2148,6 +2231,9 @@
       <c r="R28" t="n">
         <v>0</v>
       </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2208,6 +2294,9 @@
       <c r="R29" t="n">
         <v>0</v>
       </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2268,6 +2357,9 @@
       <c r="R30" t="n">
         <v>0</v>
       </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2328,6 +2420,9 @@
       <c r="R31" t="n">
         <v>0</v>
       </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2388,6 +2483,9 @@
       <c r="R32" t="n">
         <v>0</v>
       </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2448,6 +2546,9 @@
       <c r="R33" t="n">
         <v>0</v>
       </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2508,6 +2609,9 @@
       <c r="R34" t="n">
         <v>0</v>
       </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2568,6 +2672,9 @@
       <c r="R35" t="n">
         <v>0</v>
       </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2628,6 +2735,9 @@
       <c r="R36" t="n">
         <v>0</v>
       </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2688,6 +2798,9 @@
       <c r="R37" t="n">
         <v>0</v>
       </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2748,6 +2861,9 @@
       <c r="R38" t="n">
         <v>0</v>
       </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2808,6 +2924,9 @@
       <c r="R39" t="n">
         <v>0</v>
       </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2868,6 +2987,9 @@
       <c r="R40" t="n">
         <v>0</v>
       </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2928,6 +3050,9 @@
       <c r="R41" t="n">
         <v>0</v>
       </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2988,6 +3113,9 @@
       <c r="R42" t="n">
         <v>0</v>
       </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3048,6 +3176,9 @@
       <c r="R43" t="n">
         <v>0</v>
       </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3108,6 +3239,9 @@
       <c r="R44" t="n">
         <v>0</v>
       </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3168,6 +3302,9 @@
       <c r="R45" t="n">
         <v>0</v>
       </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3228,6 +3365,9 @@
       <c r="R46" t="n">
         <v>0</v>
       </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3288,6 +3428,9 @@
       <c r="R47" t="n">
         <v>0</v>
       </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3348,6 +3491,9 @@
       <c r="R48" t="n">
         <v>0</v>
       </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3408,6 +3554,9 @@
       <c r="R49" t="n">
         <v>0</v>
       </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3468,6 +3617,9 @@
       <c r="R50" t="n">
         <v>0</v>
       </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3528,6 +3680,9 @@
       <c r="R51" t="n">
         <v>0</v>
       </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3588,6 +3743,9 @@
       <c r="R52" t="n">
         <v>0</v>
       </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3648,6 +3806,9 @@
       <c r="R53" t="n">
         <v>0</v>
       </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3708,6 +3869,9 @@
       <c r="R54" t="n">
         <v>0</v>
       </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3768,6 +3932,9 @@
       <c r="R55" t="n">
         <v>0</v>
       </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3828,6 +3995,9 @@
       <c r="R56" t="n">
         <v>0</v>
       </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3888,6 +4058,9 @@
       <c r="R57" t="n">
         <v>0</v>
       </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3948,6 +4121,9 @@
       <c r="R58" t="n">
         <v>0</v>
       </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4008,6 +4184,9 @@
       <c r="R59" t="n">
         <v>0</v>
       </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -4068,6 +4247,9 @@
       <c r="R60" t="n">
         <v>0</v>
       </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -4128,6 +4310,9 @@
       <c r="R61" t="n">
         <v>0</v>
       </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -4188,6 +4373,9 @@
       <c r="R62" t="n">
         <v>0</v>
       </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -4248,6 +4436,9 @@
       <c r="R63" t="n">
         <v>0</v>
       </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4308,6 +4499,9 @@
       <c r="R64" t="n">
         <v>0</v>
       </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4368,6 +4562,9 @@
       <c r="R65" t="n">
         <v>0</v>
       </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -4428,6 +4625,9 @@
       <c r="R66" t="n">
         <v>0</v>
       </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4488,6 +4688,9 @@
       <c r="R67" t="n">
         <v>0</v>
       </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4548,6 +4751,9 @@
       <c r="R68" t="n">
         <v>0</v>
       </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4608,6 +4814,9 @@
       <c r="R69" t="n">
         <v>0</v>
       </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4668,6 +4877,9 @@
       <c r="R70" t="n">
         <v>0</v>
       </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4728,6 +4940,9 @@
       <c r="R71" t="n">
         <v>0</v>
       </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4788,6 +5003,9 @@
       <c r="R72" t="n">
         <v>0</v>
       </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4848,6 +5066,9 @@
       <c r="R73" t="n">
         <v>0</v>
       </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4908,6 +5129,9 @@
       <c r="R74" t="n">
         <v>0</v>
       </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4968,6 +5192,9 @@
       <c r="R75" t="n">
         <v>0</v>
       </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -5028,6 +5255,9 @@
       <c r="R76" t="n">
         <v>0</v>
       </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -5088,6 +5318,9 @@
       <c r="R77" t="n">
         <v>0</v>
       </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -5148,6 +5381,9 @@
       <c r="R78" t="n">
         <v>0</v>
       </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -5208,6 +5444,9 @@
       <c r="R79" t="n">
         <v>0</v>
       </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -5268,6 +5507,9 @@
       <c r="R80" t="n">
         <v>0</v>
       </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -5328,6 +5570,9 @@
       <c r="R81" t="n">
         <v>0</v>
       </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -5388,6 +5633,9 @@
       <c r="R82" t="n">
         <v>0</v>
       </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -5448,6 +5696,9 @@
       <c r="R83" t="n">
         <v>0</v>
       </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -5508,6 +5759,9 @@
       <c r="R84" t="n">
         <v>0</v>
       </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -5568,6 +5822,9 @@
       <c r="R85" t="n">
         <v>0</v>
       </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5628,6 +5885,9 @@
       <c r="R86" t="n">
         <v>0</v>
       </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5688,6 +5948,9 @@
       <c r="R87" t="n">
         <v>0</v>
       </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5748,6 +6011,9 @@
       <c r="R88" t="n">
         <v>0</v>
       </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5808,6 +6074,9 @@
       <c r="R89" t="n">
         <v>0</v>
       </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5868,6 +6137,9 @@
       <c r="R90" t="n">
         <v>0</v>
       </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5928,6 +6200,9 @@
       <c r="R91" t="n">
         <v>2</v>
       </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5988,6 +6263,9 @@
       <c r="R92" t="n">
         <v>0</v>
       </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -6048,6 +6326,9 @@
       <c r="R93" t="n">
         <v>0</v>
       </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -6108,6 +6389,9 @@
       <c r="R94" t="n">
         <v>0</v>
       </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -6168,6 +6452,9 @@
       <c r="R95" t="n">
         <v>0</v>
       </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -6228,6 +6515,9 @@
       <c r="R96" t="n">
         <v>0</v>
       </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -6288,6 +6578,9 @@
       <c r="R97" t="n">
         <v>0</v>
       </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -6348,6 +6641,9 @@
       <c r="R98" t="n">
         <v>0</v>
       </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -6408,6 +6704,9 @@
       <c r="R99" t="n">
         <v>0</v>
       </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -6468,6 +6767,9 @@
       <c r="R100" t="n">
         <v>0</v>
       </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -6528,6 +6830,9 @@
       <c r="R101" t="n">
         <v>0</v>
       </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -6588,6 +6893,9 @@
       <c r="R102" t="n">
         <v>0</v>
       </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -6648,6 +6956,9 @@
       <c r="R103" t="n">
         <v>0</v>
       </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -6708,6 +7019,9 @@
       <c r="R104" t="n">
         <v>0</v>
       </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6768,6 +7082,9 @@
       <c r="R105" t="n">
         <v>0</v>
       </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6828,6 +7145,9 @@
       <c r="R106" t="n">
         <v>0</v>
       </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6888,6 +7208,9 @@
       <c r="R107" t="n">
         <v>0</v>
       </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6948,6 +7271,9 @@
       <c r="R108" t="n">
         <v>0</v>
       </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -7008,6 +7334,9 @@
       <c r="R109" t="n">
         <v>2</v>
       </c>
+      <c r="S109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -7068,6 +7397,9 @@
       <c r="R110" t="n">
         <v>0</v>
       </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -7128,6 +7460,9 @@
       <c r="R111" t="n">
         <v>0</v>
       </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -7188,6 +7523,9 @@
       <c r="R112" t="n">
         <v>0</v>
       </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -7248,6 +7586,9 @@
       <c r="R113" t="n">
         <v>0</v>
       </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -7308,6 +7649,9 @@
       <c r="R114" t="n">
         <v>0</v>
       </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -7368,6 +7712,9 @@
       <c r="R115" t="n">
         <v>0</v>
       </c>
+      <c r="S115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -7428,6 +7775,9 @@
       <c r="R116" t="n">
         <v>0</v>
       </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -7488,6 +7838,9 @@
       <c r="R117" t="n">
         <v>1</v>
       </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -7548,6 +7901,9 @@
       <c r="R118" t="n">
         <v>0</v>
       </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -7608,6 +7964,9 @@
       <c r="R119" t="n">
         <v>0</v>
       </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -7668,6 +8027,9 @@
       <c r="R120" t="n">
         <v>0</v>
       </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -7728,6 +8090,9 @@
       <c r="R121" t="n">
         <v>0</v>
       </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -7788,6 +8153,9 @@
       <c r="R122" t="n">
         <v>0</v>
       </c>
+      <c r="S122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -7848,6 +8216,9 @@
       <c r="R123" t="n">
         <v>0</v>
       </c>
+      <c r="S123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7908,6 +8279,9 @@
       <c r="R124" t="n">
         <v>0</v>
       </c>
+      <c r="S124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7968,6 +8342,9 @@
       <c r="R125" t="n">
         <v>0</v>
       </c>
+      <c r="S125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -8028,6 +8405,9 @@
       <c r="R126" t="n">
         <v>0</v>
       </c>
+      <c r="S126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -8088,6 +8468,9 @@
       <c r="R127" t="n">
         <v>0</v>
       </c>
+      <c r="S127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -8148,6 +8531,9 @@
       <c r="R128" t="n">
         <v>0</v>
       </c>
+      <c r="S128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -8208,6 +8594,9 @@
       <c r="R129" t="n">
         <v>0</v>
       </c>
+      <c r="S129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -8268,6 +8657,9 @@
       <c r="R130" t="n">
         <v>0</v>
       </c>
+      <c r="S130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -8328,6 +8720,9 @@
       <c r="R131" t="n">
         <v>0</v>
       </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -8388,6 +8783,9 @@
       <c r="R132" t="n">
         <v>1</v>
       </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -8448,6 +8846,9 @@
       <c r="R133" t="n">
         <v>0</v>
       </c>
+      <c r="S133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -8508,6 +8909,9 @@
       <c r="R134" t="n">
         <v>0</v>
       </c>
+      <c r="S134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -8568,6 +8972,9 @@
       <c r="R135" t="n">
         <v>0</v>
       </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -8628,6 +9035,9 @@
       <c r="R136" t="n">
         <v>2</v>
       </c>
+      <c r="S136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -8688,6 +9098,9 @@
       <c r="R137" t="n">
         <v>0</v>
       </c>
+      <c r="S137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -8748,6 +9161,9 @@
       <c r="R138" t="n">
         <v>0</v>
       </c>
+      <c r="S138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -8808,6 +9224,9 @@
       <c r="R139" t="n">
         <v>0</v>
       </c>
+      <c r="S139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -8868,6 +9287,9 @@
       <c r="R140" t="n">
         <v>0</v>
       </c>
+      <c r="S140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -8928,6 +9350,9 @@
       <c r="R141" t="n">
         <v>0</v>
       </c>
+      <c r="S141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -8988,6 +9413,9 @@
       <c r="R142" t="n">
         <v>0</v>
       </c>
+      <c r="S142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -9048,6 +9476,9 @@
       <c r="R143" t="n">
         <v>0</v>
       </c>
+      <c r="S143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -9108,6 +9539,9 @@
       <c r="R144" t="n">
         <v>0</v>
       </c>
+      <c r="S144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -9168,6 +9602,9 @@
       <c r="R145" t="n">
         <v>0</v>
       </c>
+      <c r="S145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -9228,6 +9665,9 @@
       <c r="R146" t="n">
         <v>0</v>
       </c>
+      <c r="S146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -9288,6 +9728,9 @@
       <c r="R147" t="n">
         <v>0</v>
       </c>
+      <c r="S147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -9348,6 +9791,9 @@
       <c r="R148" t="n">
         <v>0</v>
       </c>
+      <c r="S148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -9408,6 +9854,9 @@
       <c r="R149" t="n">
         <v>0</v>
       </c>
+      <c r="S149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -9468,6 +9917,9 @@
       <c r="R150" t="n">
         <v>0</v>
       </c>
+      <c r="S150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -9528,6 +9980,9 @@
       <c r="R151" t="n">
         <v>0</v>
       </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -9588,6 +10043,9 @@
       <c r="R152" t="n">
         <v>1</v>
       </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -9648,6 +10106,9 @@
       <c r="R153" t="n">
         <v>0</v>
       </c>
+      <c r="S153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -9708,6 +10169,9 @@
       <c r="R154" t="n">
         <v>0</v>
       </c>
+      <c r="S154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -9768,6 +10232,9 @@
       <c r="R155" t="n">
         <v>0</v>
       </c>
+      <c r="S155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -9828,6 +10295,9 @@
       <c r="R156" t="n">
         <v>0</v>
       </c>
+      <c r="S156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -9888,6 +10358,9 @@
       <c r="R157" t="n">
         <v>0</v>
       </c>
+      <c r="S157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -9948,6 +10421,9 @@
       <c r="R158" t="n">
         <v>0</v>
       </c>
+      <c r="S158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -10008,6 +10484,9 @@
       <c r="R159" t="n">
         <v>0</v>
       </c>
+      <c r="S159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -10068,6 +10547,9 @@
       <c r="R160" t="n">
         <v>0</v>
       </c>
+      <c r="S160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -10128,6 +10610,9 @@
       <c r="R161" t="n">
         <v>0</v>
       </c>
+      <c r="S161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -10188,6 +10673,9 @@
       <c r="R162" t="n">
         <v>0</v>
       </c>
+      <c r="S162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -10248,6 +10736,9 @@
       <c r="R163" t="n">
         <v>0</v>
       </c>
+      <c r="S163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -10308,6 +10799,9 @@
       <c r="R164" t="n">
         <v>0</v>
       </c>
+      <c r="S164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -10368,6 +10862,9 @@
       <c r="R165" t="n">
         <v>0</v>
       </c>
+      <c r="S165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -10428,6 +10925,9 @@
       <c r="R166" t="n">
         <v>0</v>
       </c>
+      <c r="S166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -10488,6 +10988,9 @@
       <c r="R167" t="n">
         <v>0</v>
       </c>
+      <c r="S167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -10548,6 +11051,9 @@
       <c r="R168" t="n">
         <v>0</v>
       </c>
+      <c r="S168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -10608,6 +11114,9 @@
       <c r="R169" t="n">
         <v>0</v>
       </c>
+      <c r="S169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -10668,6 +11177,9 @@
       <c r="R170" t="n">
         <v>0</v>
       </c>
+      <c r="S170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -10728,6 +11240,9 @@
       <c r="R171" t="n">
         <v>0</v>
       </c>
+      <c r="S171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -10788,6 +11303,9 @@
       <c r="R172" t="n">
         <v>0</v>
       </c>
+      <c r="S172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -10848,6 +11366,9 @@
       <c r="R173" t="n">
         <v>0</v>
       </c>
+      <c r="S173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -10908,6 +11429,9 @@
       <c r="R174" t="n">
         <v>0</v>
       </c>
+      <c r="S174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -10968,6 +11492,9 @@
       <c r="R175" t="n">
         <v>1</v>
       </c>
+      <c r="S175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -11028,6 +11555,9 @@
       <c r="R176" t="n">
         <v>0</v>
       </c>
+      <c r="S176" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -11088,6 +11618,9 @@
       <c r="R177" t="n">
         <v>0</v>
       </c>
+      <c r="S177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -11148,6 +11681,9 @@
       <c r="R178" t="n">
         <v>0</v>
       </c>
+      <c r="S178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -11208,6 +11744,9 @@
       <c r="R179" t="n">
         <v>0</v>
       </c>
+      <c r="S179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -11268,6 +11807,9 @@
       <c r="R180" t="n">
         <v>0</v>
       </c>
+      <c r="S180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -11328,6 +11870,9 @@
       <c r="R181" t="n">
         <v>0</v>
       </c>
+      <c r="S181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -11388,6 +11933,9 @@
       <c r="R182" t="n">
         <v>0</v>
       </c>
+      <c r="S182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -11448,6 +11996,70 @@
       <c r="R183" t="n">
         <v>0</v>
       </c>
+      <c r="S183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>TVSSCS</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>NIFTY MICROCAP 250</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>175.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>177.85</v>
+      </c>
+      <c r="F184" t="n">
+        <v>175.75</v>
+      </c>
+      <c r="G184" t="n">
+        <v>176.2</v>
+      </c>
+      <c r="H184" t="n">
+        <v>106680</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="J184" t="n">
+        <v>5</v>
+      </c>
+      <c r="K184" t="n">
+        <v>18</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>20</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
